--- a/test_output/unit_economics_music_streaming_20251104.xlsx
+++ b/test_output/unit_economics_music_streaming_20251104.xlsx
@@ -32,6 +32,21 @@
     <definedName name="CAC_Calculated">'CAC_Analysis'!$B$8</definedName>
     <definedName name="LTV_CAC_Ratio">'LTV_CAC_Ratio'!$B$7</definedName>
     <definedName name="PaybackPeriod">'Payback_Period'!$B$10</definedName>
+    <definedName name="Cohort_Improvement_1">'Cohort_LTV'!$D$6</definedName>
+    <definedName name="Cohort_Improvement_2">'Cohort_LTV'!$D$7</definedName>
+    <definedName name="Cohort_Improvement_3">'Cohort_LTV'!$D$8</definedName>
+    <definedName name="Cohort_Improvement_4">'Cohort_LTV'!$D$9</definedName>
+    <definedName name="Cohort_Improvement_5">'Cohort_LTV'!$D$10</definedName>
+    <definedName name="Cohort_Improvement_6">'Cohort_LTV'!$D$11</definedName>
+    <definedName name="Cohort_Improvement_7">'Cohort_LTV'!$D$12</definedName>
+    <definedName name="Cohort_Improvement_8">'Cohort_LTV'!$D$13</definedName>
+    <definedName name="Cohort_Improvement_9">'Cohort_LTV'!$D$14</definedName>
+    <definedName name="Cohort_Improvement_10">'Cohort_LTV'!$D$15</definedName>
+    <definedName name="Cohort_Improvement_11">'Cohort_LTV'!$D$16</definedName>
+    <definedName name="Bench_Assess_LTV">'Benchmark_Comparison'!$E$7</definedName>
+    <definedName name="Bench_Assess_Payback">'Benchmark_Comparison'!$E$8</definedName>
+    <definedName name="Bench_Assess_Churn">'Benchmark_Comparison'!$E$9</definedName>
+    <definedName name="Bench_Assess_Margin">'Benchmark_Comparison'!$E$10</definedName>
   </definedNames>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
 </workbook>
@@ -1318,7 +1333,7 @@
         </is>
       </c>
       <c r="B11" s="12">
-        <f>COUNTIF(E7:E10, "*✅*")&amp;"/"&amp;4&amp;" 지표 우수"</f>
+        <f>COUNTIF(Bench_Assess_LTV:Bench_Assess_Margin, "*✅*")&amp;"/"&amp;4&amp;" 지표 우수"</f>
         <v/>
       </c>
     </row>
@@ -1329,7 +1344,7 @@
         </is>
       </c>
       <c r="B12" s="12">
-        <f>IF(COUNTIF(E7:E10, "*✅*")&gt;=3, "업계 평균 이상 (경쟁력 우수)", IF(COUNTIF(E7:E10, "*✅*")&gt;=2, "업계 평균 수준", "개선 필요"))</f>
+        <f>IF(COUNTIF(Bench_Assess_LTV:Bench_Assess_Margin, "*✅*")&gt;=3, "업계 평균 이상 (경쟁력 우수)", IF(COUNTIF(Bench_Assess_LTV:Bench_Assess_Margin, "*✅*")&gt;=2, "업계 평균 수준", "개선 필요"))</f>
         <v/>
       </c>
     </row>
@@ -4737,7 +4752,7 @@
         </is>
       </c>
       <c r="D17" s="57">
-        <f>AVERAGE(D6:D16)</f>
+        <f>AVERAGE(Cohort_Improvement_1,Cohort_Improvement_2,Cohort_Improvement_3,Cohort_Improvement_4,Cohort_Improvement_5,Cohort_Improvement_6,Cohort_Improvement_7,Cohort_Improvement_8,Cohort_Improvement_9,Cohort_Improvement_10,Cohort_Improvement_11)</f>
         <v/>
       </c>
     </row>
